--- a/eco to fish model/t1b.xlsx
+++ b/eco to fish model/t1b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Stream</t>
   </si>
@@ -40,16 +40,31 @@
     <t>density</t>
   </si>
   <si>
+    <t>皮尔逊相关系数检验得到的相关系数矩阵</t>
+  </si>
+  <si>
     <t>Unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             |  density        M</t>
   </si>
   <si>
     <t>Jordan</t>
   </si>
   <si>
+    <t>-------------+------------------</t>
+  </si>
+  <si>
     <t>Cod</t>
   </si>
   <si>
+    <t xml:space="preserve">     density |   1.0000 </t>
+  </si>
+  <si>
     <t>Butler Mill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             |</t>
   </si>
   <si>
     <t>Chapel</t>
@@ -58,7 +73,13 @@
     <t>Garey Mill</t>
   </si>
   <si>
+    <t xml:space="preserve">           M |   0.5452   1.0000 </t>
+  </si>
+  <si>
     <t>L. Whippoorwill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             |   0.0668</t>
   </si>
   <si>
     <t>Sinking</t>
@@ -1791,7 +1812,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5588000" y="1698625"/>
+        <a:off x="5588000" y="1689100"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2055,19 +2076,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="12.8181818181818"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2078,10 +2099,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>28.7</v>
@@ -2090,10 +2114,13 @@
         <v>0.044</v>
       </c>
       <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>48.9</v>
@@ -2102,10 +2129,13 @@
         <v>0.099333333</v>
       </c>
       <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>70.9</v>
@@ -2114,10 +2144,13 @@
         <v>0.251</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>51.9</v>
@@ -2126,10 +2159,13 @@
         <v>0.251</v>
       </c>
       <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>57.3</v>
@@ -2138,10 +2174,13 @@
         <v>0.251</v>
       </c>
       <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>40.1</v>
@@ -2150,10 +2189,13 @@
         <v>0.078</v>
       </c>
       <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>30</v>
@@ -2162,10 +2204,13 @@
         <v>0.003</v>
       </c>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>36.2</v>
@@ -2174,10 +2219,13 @@
         <v>0.009</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>50.8</v>
@@ -2189,7 +2237,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>50.8</v>
@@ -2201,7 +2249,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>57.4</v>
@@ -2213,7 +2261,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>47</v>
